--- a/Левак/расписание экзаменов 3 курс летний семестр 2023.xlsx
+++ b/Левак/расписание экзаменов 3 курс летний семестр 2023.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637E008-C293-4F8B-8990-DFF41AA267DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 курс" sheetId="1" r:id="rId1"/>
@@ -478,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,7 +674,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +693,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -918,15 +925,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,151 +942,160 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,6 +1191,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1211,6 +1243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1386,529 +1435,504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="37" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="30" zoomScaleNormal="40" zoomScaleSheetLayoutView="30" zoomScalePageLayoutView="37" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="5.65" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="4.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="71.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="71.7109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="4.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="71.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="71.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="30" t="s">
+    <row r="1" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="3:16" s="4" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="3:16" s="4" customFormat="1" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="3:16" s="4" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="3:16" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="3:16" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="43" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="3:16" s="3" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="3:16" s="3" customFormat="1" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="3:16" s="3" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+    </row>
+    <row r="11" spans="3:16" s="3" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="3:16" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="3:16" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="3:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="3:16" s="4" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="3:16" s="4" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="3:11" s="4" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="3:11" s="4" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="21" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="3:16" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="3:16" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="3:16" s="3" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="3:16" s="3" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="3:11" s="3" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="3:11" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="3:11" s="4" customFormat="1" ht="222" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="22" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="3:11" s="3" customFormat="1" ht="222" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44" t="s">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="3:11" s="4" customFormat="1" ht="220.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="22" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="3:11" s="3" customFormat="1" ht="220.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="3:11" s="4" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="27" t="s">
+      <c r="I20" s="33"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="3:11" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="3:11" s="4" customFormat="1" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="3:11" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="27" t="s">
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="3:11" s="3" customFormat="1" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="3:11" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="3:11" s="4" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="3:11" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="27" t="s">
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="3:11" s="3" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="11"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="3:11" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="3:11" s="4" customFormat="1" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="3:11" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="27" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="3:11" s="3" customFormat="1" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="3:11" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="3:11" s="4" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="3:11" s="4" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="40" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="3:11" s="3" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="51"/>
+    </row>
+    <row r="29" spans="3:11" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="47" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="3:11" s="4" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="3:11" s="4" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="40" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="3:11" s="3" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="3:11" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-    </row>
-    <row r="32" spans="3:11" s="4" customFormat="1" ht="166.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="3:11" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="27" t="s">
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="3:11" s="3" customFormat="1" ht="166.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="3:11" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47" t="s">
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="3:11" s="4" customFormat="1" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="35"/>
-    </row>
-    <row r="35" spans="3:11" s="4" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="3:11" s="4" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="3:11" s="4" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="18"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="3:11" s="3" customFormat="1" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="11"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="3:11" s="3" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="3:11" s="3" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="3:11" s="3" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="H1:J8"/>
-    <mergeCell ref="F12:I16"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J27:J28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
@@ -1925,7 +1949,30 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="H1:J8"/>
+    <mergeCell ref="F12:I16"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F21:F22"/>
@@ -1938,14 +1985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Левак/расписание экзаменов 3 курс летний семестр 2023.xlsx
+++ b/Левак/расписание экзаменов 3 курс летний семестр 2023.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637E008-C293-4F8B-8990-DFF41AA267DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC4B1E-8875-4FD4-8122-962AFDE909EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Дата проведения экзамена</t>
   </si>
@@ -474,6 +474,9 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1032,63 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1039,63 +1099,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1116,9 +1119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1156,9 +1159,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1191,26 +1194,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,26 +1229,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1453,11 +1422,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="29"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -1466,9 +1435,9 @@
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="29"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1477,9 +1446,9 @@
       <c r="P2" s="18"/>
     </row>
     <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="29"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -1488,9 +1457,9 @@
       <c r="P3" s="18"/>
     </row>
     <row r="4" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="29"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -1499,9 +1468,9 @@
       <c r="P4" s="18"/>
     </row>
     <row r="5" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="29"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
@@ -1510,9 +1479,9 @@
       <c r="P5" s="18"/>
     </row>
     <row r="6" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="29"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -1521,9 +1490,9 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="29"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -1537,9 +1506,9 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="29"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1594,12 +1563,12 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="7"/>
@@ -1608,10 +1577,10 @@
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
@@ -1619,10 +1588,10 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
@@ -1630,10 +1599,10 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
@@ -1641,10 +1610,10 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
@@ -1717,131 +1686,131 @@
     <row r="21" spans="3:11" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="3:11" s="3" customFormat="1" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="3:11" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="45" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="3:11" s="3" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="3:11" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="3:11" s="3" customFormat="1" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
     </row>
     <row r="27" spans="3:11" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="54"/>
     </row>
     <row r="28" spans="3:11" s="3" customFormat="1" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="51"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="3:11" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="42" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="35"/>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="50" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="27"/>
@@ -1850,27 +1819,29 @@
     <row r="30" spans="3:11" s="3" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="46"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="27"/>
       <c r="K30" s="28"/>
     </row>
     <row r="31" spans="3:11" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="35" t="s">
+        <v>33</v>
+      </c>
       <c r="I31" s="36"/>
       <c r="J31" s="27"/>
       <c r="K31" s="28"/>
@@ -1878,9 +1849,9 @@
     <row r="32" spans="3:11" s="3" customFormat="1" ht="166.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="37"/>
       <c r="I32" s="38"/>
       <c r="J32" s="27"/>
@@ -1889,35 +1860,35 @@
     <row r="33" spans="3:11" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="11"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="58" t="s">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="50"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="54"/>
     </row>
     <row r="34" spans="3:11" s="3" customFormat="1" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="11"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="51"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="3:11" s="3" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
@@ -1933,6 +1904,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="H1:J8"/>
+    <mergeCell ref="F12:I16"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
@@ -1949,35 +1949,6 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="H1:J8"/>
-    <mergeCell ref="F12:I16"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
